--- a/data/trans_orig/P20D2_R_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_R_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>9113</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5239</v>
+        <v>4960</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13038</v>
+        <v>12874</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5592941868285637</v>
+        <v>0.5592941868285636</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3215572725677262</v>
+        <v>0.3044252738471793</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8002444090738597</v>
+        <v>0.7901514416486477</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>2647</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4983</v>
+        <v>5233</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2986783974945222</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07967748311939592</v>
+        <v>0.07929954660192348</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5621168452361135</v>
+        <v>0.5903759529246446</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -783,19 +783,19 @@
         <v>11760</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7107</v>
+        <v>6946</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16762</v>
+        <v>16457</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4674686889228168</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2825208401169086</v>
+        <v>0.2761004893343096</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6662837116476058</v>
+        <v>0.6541740768160915</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>7180</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3255</v>
+        <v>3419</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11054</v>
+        <v>11333</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4407058131714363</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1997555909261406</v>
+        <v>0.2098485583513525</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.678442727432274</v>
+        <v>0.6955747261528207</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -833,19 +833,19 @@
         <v>6217</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3881</v>
+        <v>3631</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8158</v>
+        <v>8161</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7013216025054778</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4378831547638867</v>
+        <v>0.4096240470753552</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9203225168806044</v>
+        <v>0.9207004533980766</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -854,19 +854,19 @@
         <v>13397</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8395</v>
+        <v>8700</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18050</v>
+        <v>18211</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5325313110771833</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3337162883523943</v>
+        <v>0.3458259231839088</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7174791598830917</v>
+        <v>0.7238995106656905</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>11637</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7200</v>
+        <v>8021</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14032</v>
+        <v>14101</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7749845040966649</v>
+        <v>0.774984504096665</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4795143123904351</v>
+        <v>0.5341849920946733</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.934465436439941</v>
+        <v>0.9390405374887513</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -979,19 +979,19 @@
         <v>8945</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5901</v>
+        <v>6088</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11828</v>
+        <v>11849</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5527653752201741</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.364641331342583</v>
+        <v>0.3762094027879216</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7309340016139412</v>
+        <v>0.7322463054223319</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -1000,19 +1000,19 @@
         <v>20582</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15915</v>
+        <v>16153</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24792</v>
+        <v>24970</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6597214101111385</v>
+        <v>0.6597214101111386</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5101270760524874</v>
+        <v>0.5177697515183822</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7946713112061824</v>
+        <v>0.8003807386662074</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>3379</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>984</v>
+        <v>915</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7816</v>
+        <v>6995</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2250154959033351</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06553456356005924</v>
+        <v>0.06095946251124893</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5204856876095691</v>
+        <v>0.4658150079053269</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -1050,19 +1050,19 @@
         <v>7237</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4354</v>
+        <v>4333</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10281</v>
+        <v>10094</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.447234624779826</v>
+        <v>0.4472346247798259</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2690659983860586</v>
+        <v>0.2677536945776682</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6353586686574166</v>
+        <v>0.6237905972120784</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -1071,19 +1071,19 @@
         <v>10616</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6406</v>
+        <v>6228</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15283</v>
+        <v>15045</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3402785898888616</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2053286887938177</v>
+        <v>0.1996192613337926</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4898729239475127</v>
+        <v>0.4822302484816178</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>13515</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9072</v>
+        <v>9539</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15894</v>
+        <v>15849</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8045770955664829</v>
+        <v>0.8045770955664828</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5400388952575234</v>
+        <v>0.5678561718728161</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9461780694810918</v>
+        <v>0.9434849697278648</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1196,19 +1196,19 @@
         <v>4583</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2135</v>
+        <v>2032</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8511</v>
+        <v>8130</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.290839146787382</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1354755121107926</v>
+        <v>0.1289622927641705</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5400732567488166</v>
+        <v>0.5159260558556596</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -1217,19 +1217,19 @@
         <v>18098</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12419</v>
+        <v>13230</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23060</v>
+        <v>23482</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5559064569966985</v>
+        <v>0.5559064569966986</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3814731780381876</v>
+        <v>0.4063787156476723</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7083293140244968</v>
+        <v>0.7212677551665145</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>3283</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>904</v>
+        <v>949</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7726</v>
+        <v>7259</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1954229044335172</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05382193051890826</v>
+        <v>0.05651503027213518</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4599611047424765</v>
+        <v>0.4321438281271839</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -1267,19 +1267,19 @@
         <v>11176</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7248</v>
+        <v>7629</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13624</v>
+        <v>13727</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.709160853212618</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4599267432511837</v>
+        <v>0.4840739441443405</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8645244878892075</v>
+        <v>0.8710377072358294</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -1288,19 +1288,19 @@
         <v>14458</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9496</v>
+        <v>9074</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20137</v>
+        <v>19326</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4440935430033016</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2916706859755029</v>
+        <v>0.2787322448334853</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6185268219618123</v>
+        <v>0.5936212843523277</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>14711</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10281</v>
+        <v>10345</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17185</v>
+        <v>18084</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8134964929749982</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5685358093484845</v>
+        <v>0.5720317618211839</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9502846433702423</v>
+        <v>1</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1413,19 +1413,19 @@
         <v>7149</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3240</v>
+        <v>3087</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12243</v>
+        <v>11673</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4464094457253669</v>
+        <v>0.4464094457253668</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2023183523477728</v>
+        <v>0.1927592926794134</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7645055123448732</v>
+        <v>0.7289267411029953</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -1434,19 +1434,19 @@
         <v>21859</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16695</v>
+        <v>16291</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26968</v>
+        <v>27276</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6410957084892991</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4896346986443529</v>
+        <v>0.4777720272337315</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7909135019053544</v>
+        <v>0.7999599603261707</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>3373</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>899</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7803</v>
+        <v>7739</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.186503507025002</v>
+        <v>0.1865035070250019</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04971535662975757</v>
+        <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4314641906515153</v>
+        <v>0.4279682381788163</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -1484,19 +1484,19 @@
         <v>8865</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3771</v>
+        <v>4341</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12774</v>
+        <v>12927</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5535905542746332</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.235494487655127</v>
+        <v>0.2710732588970047</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.797681647652227</v>
+        <v>0.8072407073205866</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -1505,19 +1505,19 @@
         <v>12238</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7129</v>
+        <v>6821</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17402</v>
+        <v>17806</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3589042915107011</v>
+        <v>0.358904291510701</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2090864980946459</v>
+        <v>0.2000400396738291</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5103653013556472</v>
+        <v>0.5222279727662685</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>48975</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41651</v>
+        <v>41108</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55380</v>
+        <v>55195</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7399224932280498</v>
+        <v>0.7399224932280501</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6292579521627114</v>
+        <v>0.621053927480866</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8366795383816439</v>
+        <v>0.8338867206991099</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -1630,19 +1630,19 @@
         <v>23324</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17105</v>
+        <v>17536</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31273</v>
+        <v>31963</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4105059974479598</v>
+        <v>0.41050599744796</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3010577069183517</v>
+        <v>0.3086300968517023</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5504100020221605</v>
+        <v>0.5625436536672241</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>89</v>
@@ -1651,19 +1651,19 @@
         <v>72300</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62026</v>
+        <v>61155</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>82612</v>
+        <v>82050</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5877635739907279</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5042357907681905</v>
+        <v>0.4971566156628182</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6715893841487719</v>
+        <v>0.6670271581291833</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>17215</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10810</v>
+        <v>10995</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24539</v>
+        <v>25082</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2600775067719499</v>
+        <v>0.26007750677195</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1633204616183563</v>
+        <v>0.1661132793008902</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3707420478372885</v>
+        <v>0.3789460725191345</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -1701,19 +1701,19 @@
         <v>33494</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>25545</v>
+        <v>24855</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39713</v>
+        <v>39282</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5894940025520398</v>
+        <v>0.5894940025520401</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4495899979778399</v>
+        <v>0.4374563463327761</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6989422930816483</v>
+        <v>0.6913699031482974</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>70</v>
@@ -1722,19 +1722,19 @@
         <v>50709</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>40397</v>
+        <v>40959</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>60983</v>
+        <v>61854</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.412236426009272</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.328410615851228</v>
+        <v>0.3329728418708169</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4957642092318095</v>
+        <v>0.502843384337182</v>
       </c>
     </row>
     <row r="18">
